--- a/database/industries/ghaza/gheshan/income/yearly/rial.xlsx
+++ b/database/industries/ghaza/gheshan/income/yearly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshan\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\ghaza\gheshan\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70811F7-7D1C-4493-874D-039407C00BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F2E4FD-8AFD-43C8-8435-4D011D99F062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>هزینه کاهش ارزش دریافتنی‌‏ها (هزینه استثنایی)</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>خالص سایر درامدها (هزینه ها) ی عملیاتی</t>
@@ -727,19 +724,19 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>0</v>
+        <v>2165020</v>
       </c>
       <c r="E11" s="13">
-        <v>0</v>
+        <v>2859959</v>
       </c>
       <c r="F11" s="13">
-        <v>0</v>
+        <v>4233243</v>
       </c>
       <c r="G11" s="13">
-        <v>0</v>
+        <v>6211749</v>
       </c>
       <c r="H11" s="13">
-        <v>0</v>
+        <v>14977487</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -748,19 +745,19 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>0</v>
+        <v>-1924597</v>
       </c>
       <c r="E12" s="11">
-        <v>0</v>
+        <v>-2527347</v>
       </c>
       <c r="F12" s="11">
-        <v>0</v>
+        <v>-3624067</v>
       </c>
       <c r="G12" s="11">
-        <v>0</v>
+        <v>-5415675</v>
       </c>
       <c r="H12" s="11">
-        <v>0</v>
+        <v>-12683135</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
@@ -769,19 +766,19 @@
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>0</v>
+        <v>240423</v>
       </c>
       <c r="E13" s="15">
-        <v>0</v>
+        <v>332612</v>
       </c>
       <c r="F13" s="15">
-        <v>0</v>
+        <v>609176</v>
       </c>
       <c r="G13" s="15">
-        <v>0</v>
+        <v>796074</v>
       </c>
       <c r="H13" s="15">
-        <v>0</v>
+        <v>2294352</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
@@ -790,19 +787,19 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>0</v>
+        <v>-91425</v>
       </c>
       <c r="E14" s="11">
-        <v>0</v>
+        <v>-111606</v>
       </c>
       <c r="F14" s="11">
-        <v>0</v>
+        <v>-191409</v>
       </c>
       <c r="G14" s="11">
-        <v>0</v>
+        <v>-265580</v>
       </c>
       <c r="H14" s="11">
-        <v>0</v>
+        <v>-499564</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -810,272 +807,272 @@
         <v>20</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>21</v>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>0</v>
+        <v>-9444</v>
       </c>
       <c r="E16" s="11">
-        <v>0</v>
+        <v>-12992</v>
       </c>
       <c r="F16" s="11">
-        <v>0</v>
+        <v>-14806</v>
       </c>
       <c r="G16" s="11">
-        <v>0</v>
+        <v>-22779</v>
       </c>
       <c r="H16" s="11">
-        <v>0</v>
+        <v>-48155</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>0</v>
+        <v>139554</v>
       </c>
       <c r="E17" s="15">
-        <v>0</v>
+        <v>208014</v>
       </c>
       <c r="F17" s="15">
-        <v>0</v>
+        <v>402961</v>
       </c>
       <c r="G17" s="15">
-        <v>0</v>
+        <v>507715</v>
       </c>
       <c r="H17" s="15">
-        <v>0</v>
+        <v>1746633</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>0</v>
+        <v>-18739</v>
       </c>
       <c r="E18" s="11">
-        <v>0</v>
+        <v>-20996</v>
       </c>
       <c r="F18" s="11">
-        <v>0</v>
+        <v>-31043</v>
       </c>
       <c r="G18" s="11">
-        <v>0</v>
+        <v>-69136</v>
       </c>
       <c r="H18" s="11">
-        <v>0</v>
+        <v>-103359</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>0</v>
+        <v>18494</v>
       </c>
       <c r="E19" s="13">
-        <v>0</v>
+        <v>4402</v>
       </c>
       <c r="F19" s="13">
-        <v>0</v>
+        <v>7215</v>
       </c>
       <c r="G19" s="13">
-        <v>0</v>
+        <v>-22393</v>
       </c>
       <c r="H19" s="13">
-        <v>0</v>
+        <v>18429</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>0</v>
+        <v>139309</v>
       </c>
       <c r="E20" s="17">
-        <v>0</v>
+        <v>191420</v>
       </c>
       <c r="F20" s="17">
-        <v>0</v>
+        <v>379133</v>
       </c>
       <c r="G20" s="17">
-        <v>0</v>
+        <v>416186</v>
       </c>
       <c r="H20" s="17">
-        <v>0</v>
+        <v>1661703</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>0</v>
+        <v>-36702</v>
       </c>
       <c r="E21" s="13">
-        <v>0</v>
+        <v>-34279</v>
       </c>
       <c r="F21" s="13">
-        <v>0</v>
+        <v>-75541</v>
       </c>
       <c r="G21" s="13">
-        <v>0</v>
+        <v>-93669</v>
       </c>
       <c r="H21" s="13">
-        <v>0</v>
+        <v>-295785</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>0</v>
+        <v>102607</v>
       </c>
       <c r="E22" s="17">
-        <v>0</v>
+        <v>157141</v>
       </c>
       <c r="F22" s="17">
-        <v>0</v>
+        <v>303592</v>
       </c>
       <c r="G22" s="17">
-        <v>0</v>
+        <v>322517</v>
       </c>
       <c r="H22" s="17">
-        <v>0</v>
+        <v>1365918</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>21</v>
+      <c r="D23" s="13">
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>0</v>
+        <v>102607</v>
       </c>
       <c r="E24" s="17">
-        <v>0</v>
+        <v>157141</v>
       </c>
       <c r="F24" s="17">
-        <v>0</v>
+        <v>303592</v>
       </c>
       <c r="G24" s="17">
-        <v>0</v>
+        <v>322517</v>
       </c>
       <c r="H24" s="17">
-        <v>0</v>
+        <v>1365918</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="E25" s="13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F25" s="13">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="G25" s="13">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="H25" s="13">
-        <v>0</v>
+        <v>795</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="E26" s="11">
-        <v>0</v>
+        <v>1574045</v>
       </c>
       <c r="F26" s="11">
-        <v>0</v>
+        <v>1574045</v>
       </c>
       <c r="G26" s="11">
-        <v>0</v>
+        <v>1718000</v>
       </c>
       <c r="H26" s="11">
-        <v>0</v>
+        <v>1718000</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E27" s="13">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="F27" s="13">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G27" s="13">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="H27" s="13">
-        <v>0</v>
+        <v>795</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
